--- a/documents/NextGen - SCRUM Documentation.xlsx
+++ b/documents/NextGen - SCRUM Documentation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7455" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="193">
   <si>
     <t>ID</t>
   </si>
@@ -170,18 +170,6 @@
     <t>be able to see the current price of shares</t>
   </si>
   <si>
-    <t>As a Player, I want to be able to see the current price of shares so that they can decide what to buy/sell</t>
-  </si>
-  <si>
-    <t>Storyboard a UI to show this information</t>
-  </si>
-  <si>
-    <t>Implement the UI</t>
-  </si>
-  <si>
-    <t>Connect the Service to the UI</t>
-  </si>
-  <si>
     <t>Implement the Service</t>
   </si>
   <si>
@@ -206,15 +194,9 @@
     <t>Sprint #</t>
   </si>
   <si>
-    <t>Storyboard a UI to capture BUY commands</t>
-  </si>
-  <si>
     <t>Design a Service to handle the incoming request</t>
   </si>
   <si>
-    <t>Design a Service to expose this information</t>
-  </si>
-  <si>
     <t>Task ID#</t>
   </si>
   <si>
@@ -236,12 +218,6 @@
     <t>T5.3</t>
   </si>
   <si>
-    <t>T5.5</t>
-  </si>
-  <si>
-    <t>T5.6</t>
-  </si>
-  <si>
     <t>T4.1</t>
   </si>
   <si>
@@ -260,18 +236,6 @@
     <t>T6.2</t>
   </si>
   <si>
-    <t>T6.3</t>
-  </si>
-  <si>
-    <t>T6.4</t>
-  </si>
-  <si>
-    <t>T6.5</t>
-  </si>
-  <si>
-    <t>T6.6</t>
-  </si>
-  <si>
     <t>Estimate (hours)</t>
   </si>
   <si>
@@ -390,6 +354,258 @@
   </si>
   <si>
     <t>show stock data (Pre defined data)</t>
+  </si>
+  <si>
+    <t>Complete the simulator architecture</t>
+  </si>
+  <si>
+    <t>Implement the simulator architecture</t>
+  </si>
+  <si>
+    <t>Implement the frontend architecture</t>
+  </si>
+  <si>
+    <t>Frontend architecture needs further implementations</t>
+  </si>
+  <si>
+    <t>Create the bank Api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May be need to do some changes in future </t>
+  </si>
+  <si>
+    <t>Create stock market simulator</t>
+  </si>
+  <si>
+    <t>Implement service(Buy shares)</t>
+  </si>
+  <si>
+    <t>Develop test cases to above mentioned services</t>
+  </si>
+  <si>
+    <t>20% completed from the overall project</t>
+  </si>
+  <si>
+    <t>Research to create broker service</t>
+  </si>
+  <si>
+    <t>need to distribute the game (online play game )</t>
+  </si>
+  <si>
+    <t>Research how to use REST / Web services</t>
+  </si>
+  <si>
+    <t>implement the service</t>
+  </si>
+  <si>
+    <t>Develop the game as distributed application</t>
+  </si>
+  <si>
+    <t>Complete the task</t>
+  </si>
+  <si>
+    <t>implement the test cases</t>
+  </si>
+  <si>
+    <t>implementing the Broker service - create account</t>
+  </si>
+  <si>
+    <t>implementing the Broker service - get companies</t>
+  </si>
+  <si>
+    <t>implementing the Broker service -get sectors</t>
+  </si>
+  <si>
+    <t>implementing the Broker service - buy</t>
+  </si>
+  <si>
+    <t>implementing the Broker service - sell</t>
+  </si>
+  <si>
+    <t>Design a solution for create account</t>
+  </si>
+  <si>
+    <t>Research to create get companies</t>
+  </si>
+  <si>
+    <t>Research to create get sectors</t>
+  </si>
+  <si>
+    <t>Research to create buy shares</t>
+  </si>
+  <si>
+    <t>Research to create sell shares</t>
+  </si>
+  <si>
+    <t>40% completed from the overall project</t>
+  </si>
+  <si>
+    <t>create account to broker service</t>
+  </si>
+  <si>
+    <t>compelete the task</t>
+  </si>
+  <si>
+    <t>create get companies to broker</t>
+  </si>
+  <si>
+    <t>complete the task</t>
+  </si>
+  <si>
+    <t>implement test cases</t>
+  </si>
+  <si>
+    <t>not competed. Need to transfer to next sprint</t>
+  </si>
+  <si>
+    <t>Design a solution for get companies</t>
+  </si>
+  <si>
+    <t>create GUI for player registration</t>
+  </si>
+  <si>
+    <t>Research how to create GUI</t>
+  </si>
+  <si>
+    <t>Draw wireframe for the player registration</t>
+  </si>
+  <si>
+    <t>create GUI for sign in</t>
+  </si>
+  <si>
+    <t>Draw wireframe for the sign in</t>
+  </si>
+  <si>
+    <t>documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add details to the documentation </t>
+  </si>
+  <si>
+    <t>Create GUI</t>
+  </si>
+  <si>
+    <t>some GUI's are completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May be need to do changes when other components adding </t>
+  </si>
+  <si>
+    <t>Create player profile interface</t>
+  </si>
+  <si>
+    <t>Draw a wireframe</t>
+  </si>
+  <si>
+    <t>implement the GUI</t>
+  </si>
+  <si>
+    <t>Implement the GUI for  the side bar</t>
+  </si>
+  <si>
+    <t>T7.1</t>
+  </si>
+  <si>
+    <t>T7.2</t>
+  </si>
+  <si>
+    <t>T7.3</t>
+  </si>
+  <si>
+    <t>T7.4</t>
+  </si>
+  <si>
+    <t>T8.1</t>
+  </si>
+  <si>
+    <t>T8.2</t>
+  </si>
+  <si>
+    <t>T8.3</t>
+  </si>
+  <si>
+    <t>T8.4</t>
+  </si>
+  <si>
+    <t>T9.1</t>
+  </si>
+  <si>
+    <t>T9.2</t>
+  </si>
+  <si>
+    <t>T9.3</t>
+  </si>
+  <si>
+    <t>T10.1</t>
+  </si>
+  <si>
+    <t>T10.2</t>
+  </si>
+  <si>
+    <t>T11.1</t>
+  </si>
+  <si>
+    <t>Task ID</t>
+  </si>
+  <si>
+    <t>T12.1</t>
+  </si>
+  <si>
+    <t>T12.2</t>
+  </si>
+  <si>
+    <t>T12.3</t>
+  </si>
+  <si>
+    <t>T12.4</t>
+  </si>
+  <si>
+    <t>T13.1</t>
+  </si>
+  <si>
+    <t>T13.2</t>
+  </si>
+  <si>
+    <t>T13.3</t>
+  </si>
+  <si>
+    <t>T13.4</t>
+  </si>
+  <si>
+    <t>T14.1</t>
+  </si>
+  <si>
+    <t>T14.2</t>
+  </si>
+  <si>
+    <t>T14.3</t>
+  </si>
+  <si>
+    <t>T14.4</t>
+  </si>
+  <si>
+    <t>T15.1</t>
+  </si>
+  <si>
+    <t>T15.2</t>
+  </si>
+  <si>
+    <t>T16.1</t>
+  </si>
+  <si>
+    <t>T16.2</t>
+  </si>
+  <si>
+    <t>Design a solution for create get sectors</t>
+  </si>
+  <si>
+    <t>Design a solution for buy shares</t>
+  </si>
+  <si>
+    <t>Design a solution for shell shares</t>
+  </si>
+  <si>
+    <t>Create side bar access in GUI</t>
   </si>
 </sst>
 </file>
@@ -443,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -549,24 +765,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -580,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,18 +824,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -699,140 +885,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1178,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1383,7 @@
     <col min="4" max="4" width="44.7109375" customWidth="1"/>
     <col min="5" max="5" width="48" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="43" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1214,35 +1409,35 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="40" t="s">
-        <v>92</v>
+      <c r="D2" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="34" t="s">
-        <v>119</v>
+      <c r="I2" s="30" t="s">
+        <v>107</v>
       </c>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="37" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="40" t="s">
-        <v>93</v>
+      <c r="D3" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -1250,21 +1445,21 @@
       <c r="H3" s="7">
         <v>1</v>
       </c>
-      <c r="I3" s="34" t="s">
-        <v>119</v>
+      <c r="I3" s="30" t="s">
+        <v>107</v>
       </c>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="37" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="88" t="s">
-        <v>96</v>
+      <c r="C4" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>84</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -1272,43 +1467,43 @@
       <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="30" t="s">
         <v>12</v>
       </c>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="37" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="40"/>
+      <c r="D5" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="36"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>119</v>
+      <c r="I5" s="30" t="s">
+        <v>107</v>
       </c>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" s="41" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="37" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>98</v>
+      <c r="D6" s="36" t="s">
+        <v>86</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
@@ -1316,8 +1511,8 @@
       <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="34" t="s">
-        <v>119</v>
+      <c r="I6" s="30" t="s">
+        <v>107</v>
       </c>
       <c r="J6"/>
     </row>
@@ -1340,7 +1535,7 @@
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1361,7 +1556,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7"/>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1384,7 +1579,7 @@
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="30" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1409,7 +1604,7 @@
       <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="33" t="s">
+      <c r="I10" s="29" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1434,7 +1629,7 @@
       <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="29" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1457,47 +1652,47 @@
       <c r="H12" s="4">
         <v>1</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="29" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="33" t="s">
+      <c r="I14" s="29" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1507,21 +1702,21 @@
         <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4">
         <v>1</v>
       </c>
-      <c r="I15" s="33" t="s">
-        <v>119</v>
+      <c r="I15" s="29" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1532,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,61 +1745,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-    </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="28">
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+    </row>
+    <row r="2" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="24">
         <v>42510</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-    </row>
-    <row r="3" spans="1:13" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="28">
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="24">
         <v>42516</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="5" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1613,203 +1808,203 @@
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="46" t="s">
+      <c r="C5" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="46" t="s">
+      <c r="E5" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="46" t="s">
+      <c r="M5" s="40" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="65">
+        <v>1</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="42">
+        <v>10</v>
+      </c>
+      <c r="F6" s="42">
+        <v>10</v>
+      </c>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="77"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="42">
+        <v>5</v>
+      </c>
+      <c r="F7" s="42">
+        <v>5</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="78"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E8" s="42">
+        <v>2</v>
+      </c>
+      <c r="F8" s="42">
+        <v>2</v>
+      </c>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="68">
+        <v>2</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="45">
+        <v>5</v>
+      </c>
+      <c r="F9" s="45">
+        <v>5</v>
+      </c>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="42">
+        <v>2</v>
+      </c>
+      <c r="F10" s="42">
+        <v>2</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="78"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="42">
+        <v>3</v>
+      </c>
+      <c r="F11" s="42">
+        <v>3</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="55">
+        <v>3</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="80">
-        <v>1</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="64">
-        <v>10</v>
-      </c>
-      <c r="F6" s="58">
-        <v>10</v>
-      </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="48"/>
-    </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="81"/>
-      <c r="C7" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="65">
+      <c r="E12" s="29">
         <v>5</v>
       </c>
-      <c r="F7" s="56">
-        <v>5</v>
-      </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="63"/>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="55">
-        <v>2</v>
-      </c>
-      <c r="F8" s="60">
-        <v>2</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="52"/>
-    </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="B9" s="86">
-        <v>2</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="E9" s="55">
-        <v>5</v>
-      </c>
-      <c r="F9" s="55">
-        <v>5</v>
-      </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="50">
-        <v>2</v>
-      </c>
-      <c r="F10" s="50">
-        <v>2</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="50">
-        <v>3</v>
-      </c>
-      <c r="F11" s="50">
-        <v>3</v>
-      </c>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="74">
-        <v>3</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="33">
-        <v>5</v>
-      </c>
-      <c r="F12" s="33">
+      <c r="F12" s="29">
         <v>5</v>
       </c>
       <c r="G12" s="7"/>
@@ -1821,18 +2016,18 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="33">
+      <c r="A13" s="80"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="29">
         <v>8</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="29">
         <v>6</v>
       </c>
       <c r="G13" s="7"/>
@@ -1844,19 +2039,19 @@
       <c r="M13" s="7"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="75"/>
-      <c r="C14" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="34" t="s">
+      <c r="A14" s="80"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="34">
-        <v>5</v>
-      </c>
-      <c r="F14" s="33">
-        <v>5</v>
+      <c r="E14" s="30">
+        <v>3</v>
+      </c>
+      <c r="F14" s="29">
+        <v>3</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="13"/>
@@ -1867,19 +2062,19 @@
       <c r="M14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="34" t="s">
+      <c r="A15" s="81"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="34">
-        <v>12</v>
-      </c>
-      <c r="F15" s="33">
-        <v>12</v>
+      <c r="E15" s="30">
+        <v>9</v>
+      </c>
+      <c r="F15" s="29">
+        <v>9</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="13"/>
@@ -1890,22 +2085,22 @@
       <c r="M15" s="7"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="57">
         <v>4</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="34" t="s">
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="30">
         <v>2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="29">
         <v>2</v>
       </c>
       <c r="G16" s="7"/>
@@ -1917,10 +2112,10 @@
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="20" t="s">
-        <v>72</v>
+      <c r="A17" s="80"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>43</v>
@@ -1928,9 +2123,8 @@
       <c r="E17" s="14">
         <v>6</v>
       </c>
-      <c r="F17" s="4">
-        <f t="shared" ref="F16:F34" si="0">SUM(G17:M17)</f>
-        <v>0</v>
+      <c r="F17" s="29">
+        <v>4</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1941,20 +2135,19 @@
       <c r="M17" s="4"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="35" t="s">
+      <c r="A18" s="80"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="35">
-        <v>3</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="E18" s="31">
+        <v>1</v>
+      </c>
+      <c r="F18" s="29">
+        <v>1</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1965,20 +2158,19 @@
       <c r="M18" s="4"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="33" t="s">
+      <c r="A19" s="81"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="29">
         <v>7</v>
       </c>
-      <c r="F19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F19" s="29">
+        <v>5</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1989,24 +2181,23 @@
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="70">
+      <c r="B20" s="57">
         <v>5</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="33">
+      <c r="C20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="29">
         <v>3</v>
       </c>
-      <c r="F20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F20" s="29">
+        <v>4</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -2016,41 +2207,43 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
     </row>
-    <row r="21" spans="1:13" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="33"/>
-      <c r="F21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
+    <row r="21" spans="1:13" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="29">
+        <v>1</v>
+      </c>
+      <c r="F21" s="29">
+        <v>1</v>
+      </c>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A22" s="81"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="29">
+        <v>4</v>
+      </c>
+      <c r="F22" s="29">
+        <v>3</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -2061,18 +2254,23 @@
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A23" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="57">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="29">
+        <v>6</v>
+      </c>
+      <c r="F23" s="29">
+        <v>7</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2083,18 +2281,19 @@
       <c r="M23" s="4"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="A24" s="81"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="29">
+        <v>5</v>
+      </c>
+      <c r="F24" s="29">
+        <v>5</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2105,266 +2304,63 @@
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="4">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="32"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="17">
+        <f t="shared" ref="E26:M26" si="0">SUM(E5:E25)</f>
+        <v>87</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="G26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="70">
-        <v>6</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="4">
+      <c r="H26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="4">
+      <c r="I26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="4">
+      <c r="J26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="4">
+      <c r="K26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="4">
+      <c r="L26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="36"/>
-      <c r="F31" s="4">
+      <c r="M26" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="17">
-        <f t="shared" ref="E35:M35" si="1">SUM(E5:E34)</f>
-        <v>78</v>
-      </c>
-      <c r="F35" s="17">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="G35" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K35" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M35" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
@@ -2374,6 +2370,8 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2385,7 +2383,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,91 +2393,106 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>84</v>
+      <c r="A5" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>111</v>
+      </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="C7" s="51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="C8" s="51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="C9" s="51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="C10" s="51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
+        <v>117</v>
+      </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C11" s="51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-    </row>
+      <c r="A14" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+    </row>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2487,333 +2500,517 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+      <selection activeCell="A16" sqref="A16:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="62.7109375" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="24">
+        <v>42510</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+    </row>
+    <row r="3" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-    </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="24">
+        <v>42516</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+    </row>
+    <row r="4" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E4" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I4" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M4" s="40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="55">
+        <v>7</v>
+      </c>
+      <c r="C5" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="7">
+        <v>6</v>
+      </c>
+      <c r="F5" s="13">
+        <v>6</v>
+      </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="74"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="13">
+        <v>5</v>
+      </c>
       <c r="G6" s="13"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="74"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="13">
+        <v>4</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="75"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="13">
+        <v>5</v>
+      </c>
       <c r="G8" s="13"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="57">
+        <v>8</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="13">
+        <v>3</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="62"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="57">
+        <v>9</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4">
+        <v>10</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="74"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="75"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4">
+        <v>7</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="57">
+        <v>10</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="75"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="4">
+        <v>11</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="48">
+        <v>8</v>
+      </c>
+      <c r="F18" s="48">
+        <v>8</v>
+      </c>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="17">
+        <f>SUM(E3:E18)</f>
+        <v>74</v>
+      </c>
+      <c r="F19" s="17">
+        <f>SUM(F3:F18)</f>
+        <v>72</v>
+      </c>
+      <c r="G19" s="17">
+        <f>SUM(G3:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <f>SUM(H3:H18)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <f>SUM(I3:I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <f>SUM(J3:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <f>SUM(K3:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="17">
-        <f t="shared" ref="D23:J23" si="0">SUM(D3:D22)</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="17" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2824,7 +3021,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,44 +3031,62 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>84</v>
+      <c r="A5" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C8" s="51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2904,16 +3119,18 @@
       <c r="C15" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
+      <c r="A17" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
+      <c r="A18" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2926,288 +3143,531 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="7.7109375" customWidth="1"/>
+    <col min="1" max="1" width="49.42578125" customWidth="1"/>
+    <col min="2" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="11" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-    </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+    </row>
+    <row r="2" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="24">
+        <v>42510</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="24">
+        <v>42516</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+    </row>
+    <row r="5" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E5" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="57">
+        <v>12</v>
+      </c>
+      <c r="C6" s="86" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13">
+        <v>3</v>
+      </c>
       <c r="G6" s="13"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="87" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="86" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4</v>
+      </c>
+      <c r="F8" s="13">
+        <v>4</v>
+      </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="7"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="87" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="13">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="57">
+        <v>13</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="13">
+        <v>5</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="86" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4">
+        <v>8</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="62"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="86" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="82">
+        <v>14</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="74"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4">
+        <v>3</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="74"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="86" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="75"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="3"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="57">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="50">
+        <v>1</v>
+      </c>
+      <c r="F18" s="50">
+        <v>1</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="62"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="50">
+        <v>10</v>
+      </c>
+      <c r="F19" s="50">
+        <v>10</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="82">
+        <v>16</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="50">
+        <v>1</v>
+      </c>
+      <c r="F20" s="50">
+        <v>1</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="75"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="50">
+        <v>10</v>
+      </c>
+      <c r="F21" s="50">
+        <v>9</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3215,23 +3675,23 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="3"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="11"/>
-      <c r="C23" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="17">
-        <f t="shared" ref="D23:J23" si="0">SUM(D3:D22)</f>
-        <v>0</v>
+      <c r="C23" s="11"/>
+      <c r="D23" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="E23" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="E23:K23" si="0">SUM(E5:E22)</f>
+        <v>67</v>
       </c>
       <c r="F23" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G23" s="17">
         <f t="shared" si="0"/>
@@ -3249,12 +3709,28 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="K23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:J1"/>
+  <mergeCells count="12">
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3273,23 +3749,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>84</v>
+      <c r="A5" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3343,16 +3819,16 @@
       <c r="C15" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
+      <c r="A17" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3365,96 +3841,135 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-    </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+    </row>
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="24">
+        <v>42510</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="24">
+        <v>42516</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D5" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="7"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="7"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -3462,59 +3977,69 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="7"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="7"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="7"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="25"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="13"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="4"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3522,11 +4047,13 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="4"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3534,10 +4061,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="27"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -3546,10 +4075,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="25"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -3558,34 +4089,40 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="26"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -3594,10 +4131,12 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="26"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -3606,10 +4145,12 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="24"/>
-      <c r="B19" s="27"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -3618,10 +4159,12 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -3630,10 +4173,12 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -3642,8 +4187,10 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3654,44 +4201,75 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="11"/>
-      <c r="C23" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="17">
-        <f t="shared" ref="D23:J23" si="0">SUM(D3:D22)</f>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="11"/>
+      <c r="C25" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="17">
+        <f t="shared" ref="D25:J25" si="0">SUM(D5:D24)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E25" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F25" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G25" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H25" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I25" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J25" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3712,23 +4290,23 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>84</v>
+      <c r="A5" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3782,16 +4360,16 @@
       <c r="C15" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="83" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
+      <c r="A17" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="2">
